--- a/Studienarbeit_Jupiter_Organisatorisches.xlsx
+++ b/Studienarbeit_Jupiter_Organisatorisches.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive\Desktop\Jupiter_Project\jupiter_moons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{75FD723A-1A58-4D4C-8825-E9665BAF8BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{33C43B13-633B-4065-8564-78654AABA8A1}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="8_{75FD723A-1A58-4D4C-8825-E9665BAF8BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{449DCD08-822B-4A65-8739-4AA792E5891E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2274F163-F422-4A15-9A91-EDE44815AE60}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Sophie,Michael</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Members of Project</t>
   </si>
   <si>
-    <t>Sophie Scholz, Vittorio Serra, Sebastian Veigl and Michael Lutz</t>
-  </si>
-  <si>
     <t>Anaconda user guide</t>
   </si>
   <si>
@@ -104,12 +101,6 @@
     <t>Sophie, Michael</t>
   </si>
   <si>
-    <t>reasearches and inviting orders for a teleskop</t>
-  </si>
-  <si>
-    <t>Adding link for Astronomical Algorithm</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -119,10 +110,22 @@
     <t>No</t>
   </si>
   <si>
-    <t>Language decision (German or English) =&gt; English</t>
-  </si>
-  <si>
-    <t>inventory of the actual available teleskops and other stuff</t>
+    <t xml:space="preserve">07.11.2020: Teleskop already odered waiting for arrival </t>
+  </si>
+  <si>
+    <t>Ordering book Astronomical Algorithm (Link for website necessary)</t>
+  </si>
+  <si>
+    <t>Thomas Mannchen, Sophie Scholz, Vittorio Serra, Sebastian Veigl and Michael Lutz</t>
+  </si>
+  <si>
+    <t>selection of writting tool (Word or LaTeX)</t>
+  </si>
+  <si>
+    <t>13.11.2020: Translation nearly finished (two missing/unclear paragraphs)</t>
+  </si>
+  <si>
+    <t>reasearches for a DHBW teleskop</t>
   </si>
 </sst>
 </file>
@@ -181,16 +184,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="4">
     <dxf>
       <font>
         <color auto="1"/>
@@ -198,306 +203,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -841,20 +546,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362320F7-9A90-46A5-80C2-314A3094C3A2}">
-  <dimension ref="A2:H25"/>
+  <dimension ref="B2:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
@@ -867,12 +572,12 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -880,7 +585,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -889,7 +594,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -906,13 +611,13 @@
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -921,12 +626,12 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -935,191 +640,132 @@
         <v>4</v>
       </c>
       <c r="F7" s="2">
-        <v>44141</v>
+        <v>44148</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44148</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2">
-        <v>44141</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>44141</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>44141</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>44155</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2">
-        <v>44155</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="2">
-        <v>44141</v>
+        <v>44148</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="2">
-        <v>44141</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="2">
-        <v>44185</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="2">
+        <v>44155</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -1141,12 +787,22 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2">
+        <v>44155</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -1168,12 +824,24 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>44148</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
@@ -1195,30 +863,389 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="B25" s="1">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>44148</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H25" s="1"/>
     </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>44185</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
+        <v>15</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
+        <v>16</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="1">
+        <v>17</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="1">
+        <v>18</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F7:F1048576 F1">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="F1 F7 F10 F13 F16 F19 F22 F25 F28 F31 F34 F37 F40 F43 F46 F49 F52 F55 F57:F1048576">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G25">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Yes">
+  <conditionalFormatting sqref="G7 G10 G13 G16 G19 G22 G25 G28 G31 G34 G37 G40 G43 G46 G49 G52 G55 G58">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",G7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",G7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E25">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="High">
+  <conditionalFormatting sqref="E7 E10 E13 E16 E19 E22 E25 E28 E31 E34 E37 E40 E43 E46 E49 E52 E55 E58">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E7)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Studienarbeit_Jupiter_Organisatorisches.xlsx
+++ b/Studienarbeit_Jupiter_Organisatorisches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive\Desktop\Jupiter_Project\jupiter_moons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="8_{75FD723A-1A58-4D4C-8825-E9665BAF8BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{449DCD08-822B-4A65-8739-4AA792E5891E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6174312E-BB64-4AAA-A6F9-173EBE4C65D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2274F163-F422-4A15-9A91-EDE44815AE60}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Sophie,Michael</t>
   </si>
@@ -80,52 +80,85 @@
     <t>Members of Project</t>
   </si>
   <si>
-    <t>Anaconda user guide</t>
-  </si>
-  <si>
     <t>Diagram illustrating different methodes (E5,VSOP87...)</t>
   </si>
   <si>
-    <t>Comment software</t>
-  </si>
-  <si>
-    <t>Finished</t>
-  </si>
-  <si>
-    <t>High accuracy modell implementation and error correction</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
     <t>Sophie, Michael</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07.11.2020: Teleskop already odered waiting for arrival </t>
-  </si>
-  <si>
     <t>Ordering book Astronomical Algorithm (Link for website necessary)</t>
   </si>
   <si>
     <t>Thomas Mannchen, Sophie Scholz, Vittorio Serra, Sebastian Veigl and Michael Lutz</t>
   </si>
   <si>
-    <t>selection of writting tool (Word or LaTeX)</t>
-  </si>
-  <si>
     <t>13.11.2020: Translation nearly finished (two missing/unclear paragraphs)</t>
   </si>
   <si>
     <t>reasearches for a DHBW teleskop</t>
+  </si>
+  <si>
+    <t>Percentage of aim reached</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.11.2020: Teleskop already odered waiting for arrival </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.11.2020: library was commisioned to order book, no possibility to order the bock via
+the William Bell website 
+</t>
+  </si>
+  <si>
+    <t>Anaconda and Pycharm user guide</t>
+  </si>
+  <si>
+    <t>13.11.2020: Vittoriio nearly finished the Anaconda user guide, Sebastian started the
+user guide for Pycharm and will finish on the 18.11.2020</t>
+  </si>
+  <si>
+    <t>13.11.2020: no actions until no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementing of interpolation of radius values between satellites and jupiter to calculate phenomena  </t>
+  </si>
+  <si>
+    <t>13.11.2020: task has been defined and started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determine deviations from Thuillot`s predictions to evaluate accuracy </t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>High accuracy modell (VSOP87 and E5) implementation</t>
+  </si>
+  <si>
+    <t>Vittorio,Sebastian</t>
+  </si>
+  <si>
+    <t>13.11.2020: calculations are working without softwar error, no tests regarding accuracy have be done</t>
+  </si>
+  <si>
+    <t>Calculation of sun`s position refering to local place on earth</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Creating astronomical calender including the penomena of Jupiters satellites</t>
+  </si>
+  <si>
+    <t>Implementation of test file test_jupitermoons (necesarry for publication)</t>
+  </si>
+  <si>
+    <t>Adding functions to main in JupiterMonns.py (examples how to use class JupterMoons)</t>
+  </si>
+  <si>
+    <t>Testing the functionality of the calculation method by use of PHÉNOMÈNES DES SATELLITES GALILÉENSDE JUPITER</t>
   </si>
 </sst>
 </file>
@@ -189,13 +222,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <color auto="1"/>
@@ -213,6 +250,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -546,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362320F7-9A90-46A5-80C2-314A3094C3A2}">
-  <dimension ref="B2:H60"/>
+  <dimension ref="B3:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,25 +606,12 @@
     <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -586,8 +620,12 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -595,72 +633,72 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>44148</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>70</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -668,40 +706,40 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>44148</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>90</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -709,38 +747,40 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <v>44148</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -748,38 +788,40 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2">
-        <v>44155</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44153</v>
+      </c>
+      <c r="G17" s="1">
+        <v>50</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -787,36 +829,38 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
         <v>5</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="2">
         <v>44155</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -824,38 +868,40 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
         <v>6</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2">
-        <v>44148</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2">
+        <v>44169</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -863,38 +909,40 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
         <v>7</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="2">
-        <v>44148</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="2">
+        <v>44169</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -902,38 +950,40 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
         <v>8</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F29" s="2">
         <v>44185</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1">
+        <v>90</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -941,9 +991,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <v>9</v>
-      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -952,17 +1000,31 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="B32" s="1">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>44169</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -970,9 +1032,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
-        <v>10</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -981,17 +1041,31 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="B35" s="1">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>44169</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -999,9 +1073,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="1">
-        <v>11</v>
-      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1010,17 +1082,31 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="B38" s="1">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44169</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1028,9 +1114,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="1">
-        <v>12</v>
-      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1039,17 +1123,29 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="1">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>44169</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1057,9 +1153,7 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="1">
-        <v>13</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1068,17 +1162,29 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="1">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2">
+        <v>44169</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1086,9 +1192,7 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="1">
-        <v>14</v>
-      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1097,7 +1201,9 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
+      <c r="B47" s="1">
+        <v>14</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1115,9 +1221,7 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="1">
-        <v>15</v>
-      </c>
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1126,7 +1230,9 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="1"/>
+      <c r="B50" s="1">
+        <v>15</v>
+      </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1144,9 +1250,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="1">
-        <v>16</v>
-      </c>
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1155,7 +1259,9 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="1"/>
+      <c r="B53" s="1">
+        <v>16</v>
+      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1173,9 +1279,7 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="1">
-        <v>17</v>
-      </c>
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1184,7 +1288,9 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="1"/>
+      <c r="B56" s="1">
+        <v>17</v>
+      </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1202,9 +1308,7 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="1">
-        <v>18</v>
-      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1213,7 +1317,9 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="1"/>
+      <c r="B59" s="1">
+        <v>18</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1230,23 +1336,37 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F1 F7 F10 F13 F16 F19 F22 F25 F28 F31 F34 F37 F40 F43 F46 F49 F52 F55 F57:F1048576">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="F1 F62:F1048576">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="greaterThan">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 G10 G13 G16 G19 G22 G25 G28 G31 G34 G37 G40 G43 G46 G49 G52 G55 G58">
+  <conditionalFormatting sqref="F2 F8 F11 F14 F17 F20 F23 F26 F29 F32 F35 F38 F47 F50 F53 F56 F58:F61 F41 F44">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8 G11 G14 G17 G20 G23 G26 G29 G32 G35 G38 G41 G44 G47 G50 G53 G56 G59">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",G7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Yes",G8)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",G7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",G8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7 E10 E13 E16 E19 E22 E25 E28 E31 E34 E37 E40 E43 E46 E49 E52 E55 E58">
+  <conditionalFormatting sqref="E8 E11 E14 E17 E20 E23 E26 E29 E32 E35 E38 E41 E47 E50 E53 E56 E59 E44">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("High",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
